--- a/Третий спринт/Проект третьего спринта Шеянова А.Л..xlsx
+++ b/Третий спринт/Проект третьего спринта Шеянова А.Л..xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\Desktop\Я.Практикум\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\Третий спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1D671EF-A97A-4506-8CF7-D00A65FB346E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DCEA5-5B90-4865-98AA-3C3572AB8FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21360" yWindow="1260" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист моб. приложение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>ошибок в структуре ответа нет</t>
-  </si>
-  <si>
-    <t>Сброс маршрута происходит, если текущее время превышает время окончания маршрута, то временной интервал маршрута обновляется</t>
   </si>
   <si>
     <t>Станцию можно выбрать тапом на схеме</t>
@@ -125,21 +122,6 @@
     <t>При скролле лонгтапом можно выбрать нужную станцию, при этом схема остаётся неподвижной</t>
   </si>
   <si>
-    <t>При попадании на область клика точки станции или её названия, на точку ставится пин</t>
-  </si>
-  <si>
-    <t>При попадании на область клика точки станции или её названия точка станции уменьшается</t>
-  </si>
-  <si>
-    <t>При попадании на область клика точки станции или её названия, название станции выделяется жирным шрифтом</t>
-  </si>
-  <si>
-    <t>Пин на станции и выделение станции пропадает, когда она не попадает в зону клика</t>
-  </si>
-  <si>
-    <t>Если движение заканчивается на пустой области, карточка станции закрывается</t>
-  </si>
-  <si>
     <t>В карточке маршрута отображается кнопка "Детали маршрута"</t>
   </si>
   <si>
@@ -174,6 +156,30 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>Если текущее время превышает время окончания маршрута, то временной интервал маршрута обновляется</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>При выборе закртыой станции на точке станции появляется специальный пин для закрытой станции</t>
+  </si>
+  <si>
+    <t>При скролле лонгтапом и попадании на область клика точки станции или её названия, на точку ставится пин</t>
+  </si>
+  <si>
+    <t>При скролле лонгтапом и попадании на область клика точки станции или её названия точка станции уменьшается</t>
+  </si>
+  <si>
+    <t>При скролле лонгтапом и попадании на область клика точки станции или её названия, название станции выделяется жирным шрифтом</t>
+  </si>
+  <si>
+    <t>При скролле лонгтапом пин на станции и выделение станции пропадает, когда она не попадает в зону клика</t>
+  </si>
+  <si>
+    <t>При скролле лонгтапом если движение заканчивается на пустой области, карточка станции закрывается</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -303,7 +309,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -354,6 +359,11 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +583,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1001"/>
+  <dimension ref="A1:E1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,411 +599,485 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="32" t="s">
+      <c r="E18" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="E3" s="33" t="s">
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="E4" s="33" t="s">
+    <row r="20" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="E5" s="33" t="s">
+    <row r="21" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
+    <row r="22" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="E7" s="33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="33" t="s">
+    <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="33" t="s">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="13" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27" t="s">
+      <c r="C27" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="E13" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="E15" s="33" t="s">
+      <c r="B32" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="E16" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28">
-        <v>16</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="E18" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28">
-        <v>17</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
-        <v>18</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="E20" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <v>19</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="E21" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28">
-        <v>20</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="E22" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28">
-        <v>22</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28">
-        <v>23</v>
-      </c>
-      <c r="B25" s="25" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27">
         <v>30</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="E25" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="E26" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28">
-        <v>25</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="E27" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="E28" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28">
-        <v>27</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="E29" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="28">
-        <v>28</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="E30" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28">
-        <v>29</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="E31" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28">
-        <v>31</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27">
+        <v>31</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
-      <c r="E34" s="30"/>
+      <c r="E34" s="29"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
-      <c r="E35" s="30"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
+      <c r="E36" s="29"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
@@ -1019,7 +1103,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
     </row>
@@ -4855,9 +4939,13 @@
       <c r="B1001" s="5"/>
       <c r="C1001" s="4"/>
     </row>
+    <row r="1002" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1002" s="5"/>
+      <c r="C1002" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C1:C5 C7 C11:C13 C15:C22 C25:C1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C1:C1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4899,12 +4987,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">

--- a/Третий спринт/Проект третьего спринта Шеянова А.Л..xlsx
+++ b/Третий спринт/Проект третьего спринта Шеянова А.Л..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\Третий спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B6A06-282E-428C-83AC-9C624C14B399}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C4A54-C598-477E-B392-2DE6B91DCA6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21060" yWindow="2250" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист моб. приложение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="189">
   <si>
     <t>№</t>
   </si>
@@ -71,12 +71,6 @@
     <t>При выборе станции, выбранная станция сохраняется в список истории</t>
   </si>
   <si>
-    <t>Список выбранных станций сохраняется и в новой версии приложени для поля "Куда"</t>
-  </si>
-  <si>
-    <t>Список выбранных станций сохраняется и в новой версии приложени для поля "Откуда"</t>
-  </si>
-  <si>
     <t>Детали маршрута открываются  по тапу на кнопку Деталей маршрута в карточке маршрута</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Работа с наборами: добавление продуктов в набор POST /api/v1/kits/:id/products</t>
   </si>
   <si>
-    <t xml:space="preserve">Добавление до 30 наименований продуктов в набор </t>
-  </si>
-  <si>
     <t>a1</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t>a4</t>
   </si>
   <si>
-    <t>Добавление более 30 наименований продуктов в набор</t>
-  </si>
-  <si>
     <t>a5</t>
   </si>
   <si>
@@ -227,27 +215,6 @@
     <t>a8</t>
   </si>
   <si>
-    <t>Добавление большего количества единиц продуктов в набор</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>количество продуктов в наборе увеличелось</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>Добавление продуктов в несуществующий набор</t>
-  </si>
-  <si>
     <t>a13</t>
   </si>
   <si>
@@ -263,9 +230,6 @@
     <t>a16</t>
   </si>
   <si>
-    <t>Добавление несуществующего продукта в набор</t>
-  </si>
-  <si>
     <t>a17</t>
   </si>
   <si>
@@ -278,12 +242,6 @@
     <t>a20</t>
   </si>
   <si>
-    <t>Bloked</t>
-  </si>
-  <si>
-    <t>Добавление продуктов в набор с отсутвующим в теле запроса обязательным полем</t>
-  </si>
-  <si>
     <t>a21</t>
   </si>
   <si>
@@ -293,9 +251,6 @@
     <t>a23</t>
   </si>
   <si>
-    <t>В структуре тела запроса ошибки (вместо чисел буквы, символы или постое значение, удалить скобку)</t>
-  </si>
-  <si>
     <t>a24</t>
   </si>
   <si>
@@ -308,9 +263,6 @@
     <t>Добавить продукты в корзину: PUT /api/v1/orders/:id</t>
   </si>
   <si>
-    <t>Добавление продуктов в существующую корзину</t>
-  </si>
-  <si>
     <t>b1</t>
   </si>
   <si>
@@ -323,9 +275,6 @@
     <t>b4</t>
   </si>
   <si>
-    <t>Добавление продуктов в несуществующую корзину</t>
-  </si>
-  <si>
     <t>b5</t>
   </si>
   <si>
@@ -344,9 +293,6 @@
     <t>b8</t>
   </si>
   <si>
-    <t>Добавление несуществющих id продуктов в корзину или большого количества продуктов</t>
-  </si>
-  <si>
     <t>b9</t>
   </si>
   <si>
@@ -590,23 +536,78 @@
     <t>BUG-141924</t>
   </si>
   <si>
-    <t>BUG-141932</t>
-  </si>
-  <si>
-    <t>BUG-141935</t>
-  </si>
-  <si>
     <t>BUG-141940</t>
   </si>
   <si>
     <t>BUG-141952</t>
+  </si>
+  <si>
+    <t>Добавление продуктов в корзину с правильным id</t>
+  </si>
+  <si>
+    <t>Добавление продуктов в корзину с неправильным id</t>
+  </si>
+  <si>
+    <t>Список выбранных станций сохраняется и в новой версии приложени для поля "Куда" и "Откуда"</t>
+  </si>
+  <si>
+    <t>BUG-142326</t>
+  </si>
+  <si>
+    <t>Добавление до 30 наименований существующих продуктов в существующий набор  (все поля валидные)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавление более 30 существующих продуктов в существующий набор набор </t>
+  </si>
+  <si>
+    <t>Добавление существующих продуктов в несуществующий набор</t>
+  </si>
+  <si>
+    <t>Добавление несуществующего продукта в существующий набор набор</t>
+  </si>
+  <si>
+    <t>Добавление продуктов в набор с отсутвующим в теле запроса обязательным полем id</t>
+  </si>
+  <si>
+    <t>Добавление продуктов в набор с отсутвующим в теле запроса обязательным полем кол-во продуктов</t>
+  </si>
+  <si>
+    <t>В структуре тела запроса ошибки (вместо чисел буквы, символы, удалить скобку)</t>
+  </si>
+  <si>
+    <t>Пустой JSON</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Добавление несуществющих продуктов в корзину </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>или большого количества продуктов</t>
+    </r>
+  </si>
+  <si>
+    <t>ответ на запрос возвращает 200 OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ответ на запрос возвращает 200 OK </t>
+  </si>
+  <si>
+    <t>ответ на запрос возвращает 500 Internal Server Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -698,6 +699,36 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -725,7 +756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -868,12 +899,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1014,7 +1085,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,34 +1132,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1065,74 +1159,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{59DA2057-A205-4C5C-A4CB-3423B50A5531}"/>
@@ -1352,10 +1446,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1003"/>
+  <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1389,14 +1483,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1404,16 +1498,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1427,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1441,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1469,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1498,7 +1592,7 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1506,14 +1600,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1528,7 +1622,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1536,14 +1630,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1551,14 +1645,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1566,70 +1660,66 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>16</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="B16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
         <v>17</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
       <c r="B17" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>17</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>18</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>6</v>
@@ -1638,230 +1728,224 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="24" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="21" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>22</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>24</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>24</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>25</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>27</v>
+      <c r="A28" s="8">
+        <v>28</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>28</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>29</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>29</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>30</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>31</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="D31" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>32</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>192</v>
-      </c>
       <c r="E32" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="1"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="E35" s="20"/>
@@ -1874,7 +1958,6 @@
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
@@ -1900,7 +1983,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
     </row>
@@ -5736,13 +5819,9 @@
       <c r="B1002" s="2"/>
       <c r="C1002" s="1"/>
     </row>
-    <row r="1003" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C1:C1003" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C1:C1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5756,10 +5835,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D996"/>
+  <dimension ref="A1:D1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5771,12 +5850,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="A1" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -5793,1230 +5872,1330 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="34"/>
+        <v>53</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="34"/>
+        <v>55</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34"/>
+      <c r="C7" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="A8" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="37"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="34"/>
+        <v>62</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="A13" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="91"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="95"/>
+        <v>60</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="94"/>
+        <v>62</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="32"/>
+      <c r="C17" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="A18" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="32"/>
+        <v>186</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="32"/>
+        <v>60</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="60"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="37"/>
+        <v>71</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="61"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="106" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="97"/>
+      <c r="A23" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="103"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="60"/>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="95"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="98"/>
+        <v>60</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="108"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="37"/>
+      <c r="C27" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="59"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="97"/>
+      <c r="A28" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="95"/>
+        <v>188</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="60"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="95"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>89</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="60"/>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
       <c r="B31" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="108"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="94"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
+      <c r="C32" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="34"/>
+        <v>58</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D35" s="32"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="D36" s="32"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
+    <row r="37" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C39" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="32"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="32"/>
+    </row>
+    <row r="41" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="32"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="34"/>
+        <v>77</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>41</v>
+      </c>
       <c r="D42" s="32"/>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>7</v>
-      </c>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="34"/>
       <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>66</v>
-      </c>
+      <c r="A44" s="30"/>
+      <c r="B44" s="40"/>
       <c r="C44" s="34"/>
       <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="34"/>
-      <c r="D45" s="32"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="71"/>
+      <c r="A46" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="32"/>
+      <c r="A47" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="D48" s="32"/>
+      <c r="A48" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="97"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="32"/>
+      <c r="A49" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="35" t="s">
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C50" s="34"/>
       <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="79"/>
+      <c r="A51" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>109</v>
+        <v>82</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>62</v>
       </c>
       <c r="C52" s="34"/>
       <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="C53" s="34"/>
       <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="32"/>
+      <c r="A54" s="80" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="81"/>
+      <c r="C54" s="81"/>
+      <c r="D54" s="82"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>8</v>
+        <v>84</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>85</v>
       </c>
       <c r="C55" s="34"/>
       <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="82"/>
+      <c r="A56" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="34"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>64</v>
+      <c r="A58" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="C58" s="34"/>
-      <c r="D58" s="46"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="32"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="85"/>
+      <c r="A59" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="70"/>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" s="34"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="40" t="s">
-        <v>62</v>
+        <v>92</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" s="40" t="s">
-        <v>8</v>
+        <v>93</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>62</v>
       </c>
       <c r="C62" s="34"/>
       <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>8</v>
+      </c>
       <c r="C63" s="34"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="76"/>
-      <c r="C64" s="76"/>
-      <c r="D64" s="76"/>
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="99"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100"/>
     </row>
     <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="79"/>
+      <c r="A65" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="34"/>
+      <c r="D65" s="46"/>
     </row>
     <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="31" t="s">
-        <v>123</v>
+      <c r="A66" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C66" s="34"/>
-      <c r="D66" s="32"/>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>7</v>
+      <c r="D66" s="46"/>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C67" s="34"/>
       <c r="D67" s="32"/>
     </row>
     <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="34"/>
-      <c r="D68" s="32"/>
+      <c r="A68" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="70"/>
     </row>
     <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="C69" s="34"/>
       <c r="D69" s="32"/>
     </row>
     <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="70"/>
-      <c r="C70" s="70"/>
-      <c r="D70" s="71"/>
+      <c r="A70" s="30"/>
+      <c r="B70" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="34"/>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>76</v>
+        <v>101</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>8</v>
       </c>
       <c r="C71" s="34"/>
       <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>104</v>
-      </c>
+      <c r="A72" s="34"/>
+      <c r="B72" s="40"/>
       <c r="C72" s="34"/>
       <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="32"/>
+      <c r="A73" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="96"/>
+      <c r="C73" s="96"/>
+      <c r="D73" s="97"/>
     </row>
     <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="35" t="s">
+      <c r="A74" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="70"/>
+    </row>
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="34"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="34"/>
+      <c r="D76" s="32"/>
+    </row>
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="34"/>
+      <c r="D77" s="32"/>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="34"/>
-      <c r="D74" s="32"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="76"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="93"/>
-    </row>
-    <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="95"/>
-    </row>
-    <row r="78" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="92"/>
-      <c r="D78" s="95"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="94"/>
+      <c r="A79" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="82"/>
     </row>
     <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="C80" s="34"/>
       <c r="D80" s="32"/>
     </row>
     <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="70"/>
-      <c r="C81" s="70"/>
-      <c r="D81" s="71"/>
+      <c r="A81" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" s="34"/>
+      <c r="D81" s="32"/>
     </row>
     <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="49" t="s">
-        <v>141</v>
+        <v>112</v>
+      </c>
+      <c r="B82" s="35" t="s">
+        <v>55</v>
       </c>
       <c r="C82" s="34"/>
       <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B83" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="34"/>
       <c r="D83" s="32"/>
     </row>
     <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="72"/>
-      <c r="B84" s="73"/>
-      <c r="C84" s="73"/>
-      <c r="D84" s="74"/>
+      <c r="A84" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B84" s="96"/>
+      <c r="C84" s="96"/>
+      <c r="D84" s="97"/>
     </row>
     <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="90"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="90"/>
-    </row>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="90"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-    </row>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>3</v>
-      </c>
+      <c r="A85" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B85" s="78"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="79"/>
+    </row>
+    <row r="86" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="58"/>
+      <c r="D86" s="60"/>
+    </row>
+    <row r="87" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" s="58"/>
+      <c r="D87" s="60"/>
     </row>
     <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="65"/>
+      <c r="A88" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="47"/>
+      <c r="D88" s="59"/>
     </row>
     <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>4</v>
+      <c r="A89" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>8</v>
       </c>
       <c r="C89" s="34"/>
       <c r="D89" s="32"/>
     </row>
-    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C90" s="34"/>
-      <c r="D90" s="32"/>
+    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="81"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="82"/>
     </row>
     <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="32"/>
+      <c r="A91" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="34"/>
       <c r="D91" s="32"/>
     </row>
     <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="B92" s="67"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="68"/>
+      <c r="A92" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="34"/>
+      <c r="D92" s="32"/>
     </row>
     <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="B93" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-    </row>
-    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B94" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="34"/>
-      <c r="D94" s="32"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="85"/>
+    </row>
+    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="88"/>
     </row>
     <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B95" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
+      <c r="A95" s="89"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="91"/>
     </row>
     <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="67"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
+      <c r="A96" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="51" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
+      <c r="A97" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="93"/>
+      <c r="C97" s="93"/>
+      <c r="D97" s="94"/>
     </row>
     <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98" s="35" t="s">
-        <v>58</v>
+        <v>127</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>4</v>
       </c>
       <c r="C98" s="34"/>
       <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="34" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="C99" s="34"/>
+      <c r="D99" s="32"/>
     </row>
     <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
+      <c r="A100" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B101" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
+      <c r="A101" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="73"/>
     </row>
     <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B102" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="34"/>
+        <v>132</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="32"/>
       <c r="D102" s="32"/>
     </row>
     <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="34" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="C103" s="34"/>
+      <c r="D103" s="32"/>
     </row>
     <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B104" s="60"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="61"/>
+      <c r="A104" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C104" s="37"/>
+      <c r="D104" s="37"/>
     </row>
     <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B105" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
+      <c r="A105" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105" s="72"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="73"/>
     </row>
     <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="B106" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="34"/>
+        <v>137</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="32"/>
       <c r="D106" s="32"/>
     </row>
     <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="34"/>
+      <c r="D107" s="32"/>
+    </row>
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="37"/>
+      <c r="D108" s="37"/>
+    </row>
+    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B109" s="72"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="73"/>
+    </row>
+    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+    </row>
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" s="34"/>
+      <c r="D111" s="32"/>
+    </row>
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="37"/>
+      <c r="D112" s="37"/>
+    </row>
+    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="75"/>
+      <c r="C113" s="75"/>
+      <c r="D113" s="76"/>
+    </row>
+    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+    </row>
+    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C115" s="34"/>
+      <c r="D115" s="32"/>
+    </row>
+    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+    </row>
+    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="75"/>
+      <c r="C117" s="75"/>
+      <c r="D117" s="76"/>
+    </row>
+    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+    </row>
+    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B119" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+    </row>
+    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="37"/>
+      <c r="D120" s="37"/>
+    </row>
+    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="75"/>
+      <c r="C121" s="75"/>
+      <c r="D121" s="76"/>
+    </row>
+    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="37"/>
+      <c r="D122" s="37"/>
+    </row>
+    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+    </row>
+    <row r="124" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C124" s="41"/>
+      <c r="D124" s="54"/>
+    </row>
+    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" s="75"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="76"/>
+    </row>
+    <row r="126" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B126" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" s="42"/>
+      <c r="D126" s="56"/>
+    </row>
+    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C127" s="36"/>
+      <c r="D127" s="37"/>
+    </row>
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" s="75"/>
+      <c r="C128" s="75"/>
+      <c r="D128" s="76"/>
+    </row>
+    <row r="129" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B129" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C129" s="42"/>
+      <c r="D129" s="56"/>
+    </row>
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-    </row>
-    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="59" t="s">
+      <c r="B130" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="36"/>
+      <c r="D130" s="37"/>
+    </row>
+    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="61"/>
-    </row>
-    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="37" t="s">
+      <c r="B131" s="75"/>
+      <c r="C131" s="75"/>
+      <c r="D131" s="76"/>
+    </row>
+    <row r="132" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="B109" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-    </row>
-    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="37" t="s">
+      <c r="B132" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="42"/>
+      <c r="D132" s="56"/>
+    </row>
+    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="B110" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-    </row>
-    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B111" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-    </row>
-    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="61"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-    </row>
-    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B114" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-    </row>
-    <row r="115" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A115" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="C115" s="41"/>
-      <c r="D115" s="54"/>
-    </row>
-    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" s="62"/>
-      <c r="C116" s="62"/>
-      <c r="D116" s="62"/>
-    </row>
-    <row r="117" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A117" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="B117" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C117" s="42"/>
-      <c r="D117" s="56"/>
-    </row>
-    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B118" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C118" s="36"/>
-      <c r="D118" s="37"/>
-    </row>
-    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="62" t="s">
-        <v>182</v>
-      </c>
-      <c r="B119" s="62"/>
-      <c r="C119" s="62"/>
-      <c r="D119" s="62"/>
-    </row>
-    <row r="120" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A120" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B120" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="56"/>
-    </row>
-    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="B121" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="37"/>
-    </row>
-    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="58"/>
-    </row>
-    <row r="123" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A123" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="B123" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C123" s="42"/>
-      <c r="D123" s="56"/>
-    </row>
-    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="B124" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C124" s="36"/>
-      <c r="D124" s="32"/>
-    </row>
-    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="58"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="58"/>
-    </row>
-    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
-      <c r="B126" s="55"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="32"/>
-    </row>
-    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B127" s="2"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B128" s="2"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B129" s="2"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B130" s="2"/>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B131" s="2"/>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B132" s="2"/>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B133" s="2"/>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="2"/>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B135" s="2"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B133" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="D133" s="32"/>
+    </row>
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="74"/>
+      <c r="B134" s="75"/>
+      <c r="C134" s="75"/>
+      <c r="D134" s="76"/>
+    </row>
+    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="32"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="32"/>
+    </row>
+    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
     </row>
@@ -10256,29 +10435,56 @@
       <c r="B953" s="2"/>
       <c r="C953" s="1"/>
     </row>
-    <row r="954" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="955" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="956" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="957" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="958" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="959" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="960" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="954" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B954" s="2"/>
+      <c r="C954" s="1"/>
+    </row>
+    <row r="955" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B955" s="2"/>
+      <c r="C955" s="1"/>
+    </row>
+    <row r="956" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B956" s="2"/>
+      <c r="C956" s="1"/>
+    </row>
+    <row r="957" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B957" s="2"/>
+      <c r="C957" s="1"/>
+    </row>
+    <row r="958" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B958" s="2"/>
+      <c r="C958" s="1"/>
+    </row>
+    <row r="959" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B959" s="2"/>
+      <c r="C959" s="1"/>
+    </row>
+    <row r="960" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B960" s="2"/>
+      <c r="C960" s="1"/>
+    </row>
+    <row r="961" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B961" s="2"/>
+      <c r="C961" s="1"/>
+    </row>
+    <row r="962" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B962" s="2"/>
+      <c r="C962" s="1"/>
+    </row>
+    <row r="963" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="964" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="965" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="966" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="967" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="968" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="969" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="970" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="971" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="972" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="973" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="974" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="975" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="976" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -10299,47 +10505,54 @@
     <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D95"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A79:D79"/>
     <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C126:C953 C2 C39 D114 C77:C80 C19:C22 C24:C27 C33:C36 C4:C17 C71:C74 C42:C45 C47:C50 C52:C55 C66:C69 C97:C99 C85:C87 C101:C103 C89:C91 C93:C95 C117:C118 C61:C63 C82:C83 C105:C107 C109:C111 C113:C115 C120:C121 C29:C31 C57:C59 C123:C124" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C135:C962 C2 C47 D123 C86:C89 C14:C17 C19:C22 C4:C12 C80:C83 C50:C53 C55:C58 C60:C63 C75:C78 C106:C108 C94:C96 C110:C112 C98:C100 C102:C104 C126:C127 C69:C72 C91:C92 C114:C116 C118:C120 C122:C124 C129:C130 C65:C67 C132:C133 C24:C27 C29:C32 C34:C37 C39:C44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Третий спринт/Проект третьего спринта Шеянова А.Л..xlsx
+++ b/Третий спринт/Проект третьего спринта Шеянова А.Л..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linefight\IdeaProjects\yandex-praktikum-qa\Третий спринт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C4A54-C598-477E-B392-2DE6B91DCA6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E475449E-2E60-4C79-B257-5B1A77960F4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="15555" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист моб. приложение" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="116">
   <si>
     <t>№</t>
   </si>
@@ -176,363 +176,99 @@
     <t>Работа с наборами: добавление продуктов в набор POST /api/v1/kits/:id/products</t>
   </si>
   <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
     <t>продукты в набор добавлены</t>
   </si>
   <si>
-    <t>a3</t>
-  </si>
-  <si>
     <t xml:space="preserve">введенный запрос отправляется без ошибок </t>
   </si>
   <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ответ на запрос возвращает 400 Bad Request </t>
   </si>
   <si>
-    <t>a6</t>
-  </si>
-  <si>
     <t>продукты в набор не добавлены</t>
   </si>
   <si>
-    <t>a7</t>
-  </si>
-  <si>
     <t>введенный запрос отправляется без ошибок</t>
   </si>
   <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
     <t>ответ на запрос возвращает 404 Not found</t>
   </si>
   <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>a16</t>
-  </si>
-  <si>
-    <t>a17</t>
-  </si>
-  <si>
-    <t>a18</t>
-  </si>
-  <si>
-    <t>a19</t>
-  </si>
-  <si>
-    <t>a20</t>
-  </si>
-  <si>
-    <t>a21</t>
-  </si>
-  <si>
-    <t>a22</t>
-  </si>
-  <si>
-    <t>a23</t>
-  </si>
-  <si>
-    <t>a24</t>
-  </si>
-  <si>
-    <t>a25</t>
-  </si>
-  <si>
     <t>Работа с корзиной</t>
   </si>
   <si>
     <t>Добавить продукты в корзину: PUT /api/v1/orders/:id</t>
   </si>
   <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
     <t xml:space="preserve">ответ на запрос возвращает 404 Note Found </t>
   </si>
   <si>
-    <t>b6</t>
-  </si>
-  <si>
     <t>продукты в корзину не добавлены</t>
   </si>
   <si>
-    <t>b7</t>
-  </si>
-  <si>
-    <t>b8</t>
-  </si>
-  <si>
-    <t>b9</t>
-  </si>
-  <si>
     <t>ответ на запрос возвращает 409 Conflict</t>
   </si>
   <si>
-    <t>b10</t>
-  </si>
-  <si>
-    <t>b11</t>
-  </si>
-  <si>
-    <t>b12</t>
-  </si>
-  <si>
     <t>Добавление продуктов в корзину с отсутвующим в теле запроса обязательным полем</t>
   </si>
   <si>
-    <t>b13</t>
-  </si>
-  <si>
-    <t>b14</t>
-  </si>
-  <si>
-    <t>b15</t>
-  </si>
-  <si>
     <t>В структуре тела запроса ошибки (вместо чисел буквы или символ, удалить скобку, оставить значение пустым)</t>
   </si>
   <si>
-    <t>b16</t>
-  </si>
-  <si>
-    <t>b17</t>
-  </si>
-  <si>
     <t>Получить список продуктов, которые добавили в корзину: GET /api/v1/orders/:id</t>
   </si>
   <si>
     <t xml:space="preserve">Существующая корзина </t>
   </si>
   <si>
-    <t>b18</t>
-  </si>
-  <si>
     <t xml:space="preserve">ответ на запрос возвращает 200 ОК </t>
   </si>
   <si>
-    <t>b19</t>
-  </si>
-  <si>
-    <t>b20</t>
-  </si>
-  <si>
-    <t>b21</t>
-  </si>
-  <si>
     <t>Несуществующая корзина</t>
   </si>
   <si>
-    <t>b22</t>
-  </si>
-  <si>
-    <t>b23</t>
-  </si>
-  <si>
-    <t>b24</t>
-  </si>
-  <si>
-    <t>b25</t>
-  </si>
-  <si>
-    <t>Удалить корзину: DELETE/api/v1/orders/:id</t>
-  </si>
-  <si>
     <t>Удаление существующей корзины</t>
   </si>
   <si>
-    <t>b26</t>
-  </si>
-  <si>
-    <t>b27</t>
-  </si>
-  <si>
     <t>корзина удалена</t>
   </si>
   <si>
-    <t>b28</t>
-  </si>
-  <si>
-    <t>b29</t>
-  </si>
-  <si>
     <t>Удаление несуществующаей корзины</t>
   </si>
   <si>
-    <t>b30</t>
-  </si>
-  <si>
     <t>ответ на запрос возвращает 404 not found</t>
   </si>
   <si>
-    <t>b31</t>
-  </si>
-  <si>
     <t>Работа с курьерами: проверка, есть ли доставка курьерской службой «Привезём быстро» и сколько она стоит: POST /fast-delivery/v3.1.1/calculate-delivery.xml</t>
   </si>
   <si>
     <t>Количество товаров не превышает 7 шт и вес заказа не более 2,5 кг</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>в структуре ответа hostDeliveryCost="23" clientDeliveryCost="0"</t>
-  </si>
-  <si>
     <t>Количество товаров не превышает 7 шт и вес заказа 2,6-6 кг</t>
   </si>
   <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
-  </si>
-  <si>
-    <t>c6</t>
-  </si>
-  <si>
-    <t>в структуре ответа hostDeliveryCost="43" clientDeliveryCost="0"</t>
-  </si>
-  <si>
     <t>Количество товаров 8-14 шт и вес заказа не более 2,5 кг</t>
   </si>
   <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
     <t>Количество товаров 8-14 шт и вес заказа 2,6-6 кг</t>
   </si>
   <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>c11</t>
-  </si>
-  <si>
-    <t>c12</t>
-  </si>
-  <si>
     <t>Количество товаров больше 14 шт или вес заказа больше 6 кг</t>
   </si>
   <si>
-    <t>c13</t>
-  </si>
-  <si>
-    <t>c14</t>
-  </si>
-  <si>
-    <t>c15</t>
-  </si>
-  <si>
-    <t>в структуре ответа hostDeliveryCost="43" clientDeliveryCost="99"</t>
-  </si>
-  <si>
     <t>Время работы в диапазоне 07-21</t>
   </si>
   <si>
-    <t>c16</t>
-  </si>
-  <si>
-    <t>c17</t>
-  </si>
-  <si>
-    <t>c18</t>
-  </si>
-  <si>
-    <t>в структуре ответа isItPossibleToDeliver — true</t>
-  </si>
-  <si>
     <t>Время работы вне диапазона 07-21</t>
   </si>
   <si>
-    <t>c19</t>
-  </si>
-  <si>
-    <t>c20</t>
-  </si>
-  <si>
-    <t>c21</t>
-  </si>
-  <si>
-    <t>в структуре ответа isItPossibleToDeliver — false</t>
-  </si>
-  <si>
     <t>В теле запроса вместо чисел - буквы, символы, пустое значение</t>
   </si>
   <si>
-    <t>c22</t>
-  </si>
-  <si>
-    <t>ответ на запрос - ошибка 400 Bad Request с понятным сообщением</t>
-  </si>
-  <si>
-    <t>c23</t>
-  </si>
-  <si>
     <t>структура ответа без ошибок</t>
   </si>
   <si>
-    <t>В теле запроса нет обязательного параметра</t>
-  </si>
-  <si>
-    <t>c24</t>
-  </si>
-  <si>
-    <t>c25</t>
-  </si>
-  <si>
-    <t>В теле запроса убрать один тег</t>
-  </si>
-  <si>
-    <t>c26</t>
-  </si>
-  <si>
-    <t>c27</t>
-  </si>
-  <si>
     <t>BUG-141924</t>
   </si>
   <si>
@@ -563,12 +299,6 @@
     <t>Добавление существующих продуктов в несуществующий набор</t>
   </si>
   <si>
-    <t>Добавление несуществующего продукта в существующий набор набор</t>
-  </si>
-  <si>
-    <t>Добавление продуктов в набор с отсутвующим в теле запроса обязательным полем id</t>
-  </si>
-  <si>
     <t>Добавление продуктов в набор с отсутвующим в теле запроса обязательным полем кол-во продуктов</t>
   </si>
   <si>
@@ -578,36 +308,74 @@
     <t>Пустой JSON</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Добавление несуществющих продуктов в корзину </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>или большого количества продуктов</t>
-    </r>
-  </si>
-  <si>
-    <t>ответ на запрос возвращает 200 OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ответ на запрос возвращает 200 OK </t>
-  </si>
-  <si>
-    <t>ответ на запрос возвращает 500 Internal Server Error</t>
+    <t>Добавление несуществющих продуктов в корзину</t>
+  </si>
+  <si>
+    <t>Добавление продуктов в корзину с отсутвующим в теле запроса обязательным полем id</t>
+  </si>
+  <si>
+    <t>Удалить корзину: DELETE /api/v1/orders/:id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В теле запроса убрать обязательный параметр </t>
+  </si>
+  <si>
+    <t>BUG-143339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAILED  </t>
+  </si>
+  <si>
+    <t>BUG-143337</t>
+  </si>
+  <si>
+    <t>Добавление продуктов в набор с отсутствующим в теле запроса обязательным полем id</t>
+  </si>
+  <si>
+    <t>BUG-143348</t>
+  </si>
+  <si>
+    <t>BUG-143355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавление несуществующего продукта в существующий набор </t>
+  </si>
+  <si>
+    <t>ответ на запрос возвращает ошибку 4ХХ</t>
+  </si>
+  <si>
+    <t>ответ на запрос возвращает ошибку 4XX</t>
+  </si>
+  <si>
+    <t>BUG-143360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ответ на запрос возвращает ошибку 4ХХ </t>
+  </si>
+  <si>
+    <t>BUG-143364</t>
+  </si>
+  <si>
+    <t>BUG-143371</t>
+  </si>
+  <si>
+    <t>BUG-143375</t>
+  </si>
+  <si>
+    <t>BUG-143376</t>
+  </si>
+  <si>
+    <t>BUG-143377</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -709,14 +477,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -728,6 +488,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -944,7 +719,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -953,7 +728,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1006,7 +780,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1043,7 +816,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1063,9 +835,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1074,12 +843,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,10 +854,94 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1105,14 +952,35 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1126,12 +994,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1140,15 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1159,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,47 +1039,21 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{59DA2057-A205-4C5C-A4CB-3423B50A5531}"/>
@@ -1448,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A1:E1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1462,498 +1289,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="131"/>
+      <c r="E4" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="131"/>
+      <c r="E5" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="131"/>
+      <c r="E6" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="131"/>
+      <c r="E7" s="22" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="131"/>
+      <c r="E8" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="23" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="131"/>
+      <c r="E14" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:5" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="D16" s="131"/>
+      <c r="E16" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="D17" s="131"/>
+      <c r="E17" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>18</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="D18" s="131"/>
+      <c r="E18" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>19</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>20</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="131"/>
+      <c r="E20" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>21</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="131"/>
+      <c r="E21" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>22</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E22" s="23" t="s">
+      <c r="D22" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>23</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="D23" s="131"/>
+      <c r="E23" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>24</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="131"/>
+      <c r="E24" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>25</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="131"/>
+      <c r="E25" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>26</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="D26" s="131"/>
+      <c r="E26" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>27</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="D27" s="131"/>
+      <c r="E27" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>28</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="D28" s="131"/>
+      <c r="E28" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>29</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="D29" s="131"/>
+      <c r="E29" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>30</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="D30" s="131"/>
+      <c r="E30" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>31</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>32</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="131"/>
+      <c r="E32" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="E33" s="21"/>
+      <c r="E33" s="20"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
-      <c r="E35" s="20"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
@@ -5835,10 +5682,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1002"/>
+  <dimension ref="A1:D1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A138" sqref="A138:A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5850,1338 +5697,1560 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
+      <c r="A3" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="58">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="72">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="C5" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="B7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <v>5</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
+        <v>6</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <v>7</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28">
+        <v>8</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28">
+        <v>9</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
+        <v>11</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <v>12</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="35"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
+        <v>14</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="54"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <v>15</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="55"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28">
+        <v>16</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="91" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="93"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40">
+        <v>17</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28">
+        <v>18</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="54"/>
+    </row>
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28">
+        <v>19</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="54"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28">
+        <v>20</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="94"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="40">
+        <v>21</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28">
+        <v>22</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="54"/>
+    </row>
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28">
+        <v>23</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28">
+        <v>24</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="98"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28">
+        <v>25</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="30"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28">
+        <v>26</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28">
+        <v>27</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28">
+        <v>28</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="30"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="85"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28">
+        <v>30</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="28">
+        <v>31</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="30"/>
+    </row>
+    <row r="41" spans="1:4" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28">
+        <v>32</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="30"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28">
+        <v>33</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="30"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="83"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="85"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="97"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="88"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="84"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="85"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="28">
+        <v>34</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="28">
+        <v>35</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="28">
+        <v>36</v>
+      </c>
+      <c r="B52" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="28">
+        <v>37</v>
+      </c>
+      <c r="B53" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="104"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="28">
+        <v>38</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="28">
+        <v>39</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="28">
+        <v>40</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="28">
+        <v>41</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="85"/>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28">
+        <v>42</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="30"/>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="28">
+        <v>43</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="30"/>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="28">
+        <v>44</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="30"/>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="28">
+        <v>45</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="30"/>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="105" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="107"/>
+    </row>
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="42">
+        <v>46</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="43"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="42">
+        <v>47</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="43"/>
+    </row>
+    <row r="67" spans="1:4" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="42">
+        <v>48</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="43"/>
+    </row>
+    <row r="68" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="42">
+        <v>49</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="30"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="107"/>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="42">
+        <v>50</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="43"/>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="42">
+        <v>51</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="43"/>
+    </row>
+    <row r="72" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="42">
         <v>52</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B72" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="43"/>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="42">
         <v>53</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="B73" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="D73" s="30"/>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="84"/>
+      <c r="C74" s="84"/>
+      <c r="D74" s="85"/>
+    </row>
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="28">
         <v>54</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B75" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="30"/>
+    </row>
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="28">
         <v>55</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="B76" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="D76" s="30"/>
+    </row>
+    <row r="77" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="28">
         <v>56</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B77" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="30"/>
+    </row>
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="28">
+        <v>57</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C78" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="31" t="s">
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="32"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="30"/>
+    </row>
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="88"/>
+    </row>
+    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" s="84"/>
+      <c r="C81" s="84"/>
+      <c r="D81" s="85"/>
+    </row>
+    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="28">
         <v>58</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="B82" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="D82" s="30"/>
+    </row>
+    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="28">
         <v>59</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B83" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="30"/>
+    </row>
+    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="28">
         <v>60</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="B84" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="D84" s="30"/>
+    </row>
+    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="28">
         <v>61</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B85" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="30"/>
+    </row>
+    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="103"/>
+      <c r="C86" s="103"/>
+      <c r="D86" s="104"/>
+    </row>
+    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="28">
         <v>62</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="B87" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="32"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="D87" s="30"/>
+    </row>
+    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A88" s="28">
         <v>63</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B88" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="30"/>
+    </row>
+    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A89" s="28">
+        <v>64</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="30"/>
+    </row>
+    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A90" s="28">
+        <v>65</v>
+      </c>
+      <c r="B90" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C90" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="34" t="s">
+      <c r="D90" s="30"/>
+    </row>
+    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A91" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="88"/>
+    </row>
+    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A92" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" s="113"/>
+      <c r="C92" s="113"/>
+      <c r="D92" s="114"/>
+    </row>
+    <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="28">
+        <v>66</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A94" s="28">
+        <v>67</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D94" s="75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A95" s="28">
+        <v>68</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="32"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="34" t="s">
+      <c r="D95" s="53"/>
+    </row>
+    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A96" s="28">
+        <v>69</v>
+      </c>
+      <c r="B96" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="103"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="104"/>
+    </row>
+    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A98" s="28">
+        <v>70</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="32"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="34" t="s">
+      <c r="D98" s="30"/>
+    </row>
+    <row r="99" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A99" s="28">
+        <v>71</v>
+      </c>
+      <c r="B99" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="35" t="s">
+      <c r="D99" s="30"/>
+    </row>
+    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A100" s="28">
+        <v>72</v>
+      </c>
+      <c r="B100" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C100" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" s="107" t="s">
+      <c r="D100" s="30"/>
+    </row>
+    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A101" s="115"/>
+      <c r="B101" s="116"/>
+      <c r="C101" s="116"/>
+      <c r="D101" s="117"/>
+    </row>
+    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="120"/>
+    </row>
+    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="121"/>
+      <c r="B103" s="122"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="123"/>
+    </row>
+    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B105" s="125"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="126"/>
+    </row>
+    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="28">
+        <v>73</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="30"/>
+    </row>
+    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="127">
+        <v>74</v>
+      </c>
+      <c r="B107" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="30"/>
+    </row>
+    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="127">
+        <v>75</v>
+      </c>
+      <c r="B108" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="30"/>
+    </row>
+    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="109"/>
+      <c r="C109" s="109"/>
+      <c r="D109" s="110"/>
+    </row>
+    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="28">
+        <v>76</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="30"/>
+    </row>
+    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="28">
+        <v>77</v>
+      </c>
+      <c r="B111" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="30"/>
+    </row>
+    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="28">
+        <v>78</v>
+      </c>
+      <c r="B112" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="35"/>
+    </row>
+    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="B113" s="109"/>
+      <c r="C113" s="109"/>
+      <c r="D113" s="110"/>
+    </row>
+    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="127">
+        <v>79</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="30"/>
+    </row>
+    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="127">
+        <v>80</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="30"/>
+    </row>
+    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="127">
+        <v>81</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="35"/>
+    </row>
+    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B117" s="109"/>
+      <c r="C117" s="109"/>
+      <c r="D117" s="110"/>
+    </row>
+    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="127">
+        <v>82</v>
+      </c>
+      <c r="B118" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="30"/>
+    </row>
+    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="127">
+        <v>83</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="30"/>
+    </row>
+    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="127">
+        <v>84</v>
+      </c>
+      <c r="B120" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="35"/>
+    </row>
+    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" s="100"/>
+      <c r="C121" s="100"/>
+      <c r="D121" s="101"/>
+    </row>
+    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="127">
+        <v>85</v>
+      </c>
+      <c r="B122" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="30"/>
+    </row>
+    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="127">
+        <v>86</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="30"/>
+    </row>
+    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="127">
+        <v>87</v>
+      </c>
+      <c r="B124" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="35"/>
+    </row>
+    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="100"/>
+      <c r="C125" s="100"/>
+      <c r="D125" s="101"/>
+    </row>
+    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="128">
+        <v>88</v>
+      </c>
+      <c r="B126" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="35"/>
+    </row>
+    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="128">
+        <v>89</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C127" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="35"/>
+    </row>
+    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="128">
+        <v>90</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="35"/>
+    </row>
+    <row r="129" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="100"/>
+      <c r="C129" s="100"/>
+      <c r="D129" s="101"/>
+    </row>
+    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="128">
+        <v>91</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C130" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="60"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="105" t="s">
+      <c r="D130" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="128">
+        <v>92</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="60"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="D131" s="35"/>
+    </row>
+    <row r="132" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="128">
+        <v>93</v>
+      </c>
+      <c r="B132" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="100"/>
+      <c r="C133" s="100"/>
+      <c r="D133" s="101"/>
+    </row>
+    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="129">
+        <v>94</v>
+      </c>
+      <c r="B134" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A135" s="129">
+        <v>95</v>
+      </c>
+      <c r="B135" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C135" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="61"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="106" t="s">
+      <c r="D135" s="50"/>
+    </row>
+    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="129">
+        <v>96</v>
+      </c>
+      <c r="B136" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="37"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="103"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="62" t="s">
+      <c r="D136" s="74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" s="100"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="101"/>
+    </row>
+    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="129">
+        <v>97</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C138" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="60"/>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="60"/>
-    </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="108"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="111" t="s">
+      <c r="D138" s="81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="129">
+        <v>98</v>
+      </c>
+      <c r="B139" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C139" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="59"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="62" t="s">
+      <c r="D139" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="73">
+        <v>99</v>
+      </c>
+      <c r="B140" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="60"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="60"/>
-    </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="108"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="59"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="32"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="32"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="30"/>
-      <c r="B40" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="32"/>
-    </row>
-    <row r="41" spans="1:4" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30"/>
-      <c r="B41" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="32"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="32"/>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="32"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="97"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="32"/>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="32"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="D52" s="32"/>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="D53" s="32"/>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="82"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="32"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="32"/>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="32"/>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="32"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" s="34"/>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="32"/>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="34"/>
-      <c r="D62" s="32"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="D63" s="32"/>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="100"/>
-    </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="46"/>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="46"/>
-    </row>
-    <row r="67" spans="1:4" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="34"/>
-      <c r="D67" s="32"/>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="70"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="34"/>
-      <c r="D69" s="32"/>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="30"/>
-      <c r="B70" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="32"/>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="32"/>
-    </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="34"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="32"/>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="96"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="97"/>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="70"/>
-    </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C75" s="34"/>
-      <c r="D75" s="32"/>
-    </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="32"/>
-    </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="32"/>
-    </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="34"/>
-      <c r="D78" s="32"/>
-    </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" s="81"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="82"/>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="34"/>
-      <c r="D80" s="32"/>
-    </row>
-    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="34"/>
-      <c r="D81" s="32"/>
-    </row>
-    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="34"/>
-      <c r="D82" s="32"/>
-    </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="32"/>
-    </row>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B84" s="96"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="97"/>
-    </row>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="77" t="s">
+      <c r="D140" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="79"/>
-    </row>
-    <row r="86" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="58"/>
-      <c r="D86" s="60"/>
-    </row>
-    <row r="87" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="58"/>
-      <c r="D87" s="60"/>
-    </row>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="59"/>
-    </row>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="34"/>
-      <c r="D89" s="32"/>
-    </row>
-    <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="81"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="82"/>
-    </row>
-    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="C91" s="34"/>
-      <c r="D91" s="32"/>
-    </row>
-    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="34"/>
-      <c r="D92" s="32"/>
-    </row>
-    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="83"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="85"/>
-    </row>
-    <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="88"/>
-    </row>
-    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="89"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="91"/>
-    </row>
-    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D96" s="51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="93"/>
-      <c r="C97" s="93"/>
-      <c r="D97" s="94"/>
-    </row>
-    <row r="98" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="34"/>
-      <c r="D98" s="32"/>
-    </row>
-    <row r="99" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="B99" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="34"/>
-      <c r="D99" s="32"/>
-    </row>
-    <row r="100" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B100" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-    </row>
-    <row r="101" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="73"/>
-    </row>
-    <row r="102" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-    </row>
-    <row r="103" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B103" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="32"/>
-    </row>
-    <row r="104" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-    </row>
-    <row r="105" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="72"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="73"/>
-    </row>
-    <row r="106" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-    </row>
-    <row r="107" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="34"/>
-      <c r="D107" s="32"/>
-    </row>
-    <row r="108" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-    </row>
-    <row r="109" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B109" s="72"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="73"/>
-    </row>
-    <row r="110" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-    </row>
-    <row r="111" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C111" s="34"/>
-      <c r="D111" s="32"/>
-    </row>
-    <row r="112" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-    </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113" s="75"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="76"/>
-    </row>
-    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-    </row>
-    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="B115" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="34"/>
-      <c r="D115" s="32"/>
-    </row>
-    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B116" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-    </row>
-    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="B117" s="75"/>
-      <c r="C117" s="75"/>
-      <c r="D117" s="76"/>
-    </row>
-    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B118" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-    </row>
-    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B119" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-    </row>
-    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B120" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-    </row>
-    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" s="75"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="76"/>
-    </row>
-    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B122" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-    </row>
-    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B123" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-    </row>
-    <row r="124" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A124" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="B124" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C124" s="41"/>
-      <c r="D124" s="54"/>
-    </row>
-    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="B125" s="75"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="76"/>
-    </row>
-    <row r="126" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A126" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="B126" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C126" s="42"/>
-      <c r="D126" s="56"/>
-    </row>
-    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B127" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127" s="36"/>
-      <c r="D127" s="37"/>
-    </row>
-    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="74" t="s">
-        <v>164</v>
-      </c>
-      <c r="B128" s="75"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="76"/>
-    </row>
-    <row r="129" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A129" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B129" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C129" s="42"/>
-      <c r="D129" s="56"/>
-    </row>
-    <row r="130" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="B130" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C130" s="36"/>
-      <c r="D130" s="37"/>
-    </row>
-    <row r="131" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="76"/>
-    </row>
-    <row r="132" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A132" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="B132" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C132" s="42"/>
-      <c r="D132" s="56"/>
-    </row>
-    <row r="133" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B133" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="C133" s="36"/>
-      <c r="D133" s="32"/>
-    </row>
-    <row r="134" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="74"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="76"/>
-    </row>
-    <row r="135" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="32"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="34"/>
-      <c r="D135" s="32"/>
-    </row>
-    <row r="136" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B136" s="2"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B137" s="2"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B138" s="2"/>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B139" s="2"/>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B140" s="2"/>
-      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
@@ -7191,9 +7260,11 @@
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A143"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
+      <c r="D143"/>
     </row>
     <row r="144" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
@@ -10471,11 +10542,26 @@
       <c r="B962" s="2"/>
       <c r="C962" s="1"/>
     </row>
-    <row r="963" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="963" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B963" s="2"/>
+      <c r="C963" s="1"/>
+    </row>
+    <row r="964" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B964" s="2"/>
+      <c r="C964" s="1"/>
+    </row>
+    <row r="965" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B965" s="2"/>
+      <c r="C965" s="1"/>
+    </row>
+    <row r="966" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B966" s="2"/>
+      <c r="C966" s="1"/>
+    </row>
+    <row r="967" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B967" s="2"/>
+      <c r="C967" s="1"/>
+    </row>
     <row r="968" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="969" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="970" spans="2:3" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -10511,48 +10597,53 @@
     <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="35">
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D103"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A64:D64"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D95"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A48:D48"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C135:C962 C2 C47 D123 C86:C89 C14:C17 C19:C22 C4:C12 C80:C83 C50:C53 C55:C58 C60:C63 C75:C78 C106:C108 C94:C96 C110:C112 C98:C100 C102:C104 C126:C127 C69:C72 C91:C92 C114:C116 C118:C120 C122:C124 C129:C130 C65:C67 C132:C133 C24:C27 C29:C32 C34:C37 C39:C44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2 C47 D131 C93:C96 C14:C17 C19:C22 C4:C12 C87:C90 C50:C53 C55:C58 C60:C63 C82:C85 C114:C116 C102:C104 C118:C120 C106:C108 C110:C112 C134:C136 C75:C79 C98:C100 C122:C124 C126:C128 C130:C132 C24:C27 C29:C32 C34:C37 C39:C44 C65:C68 C70:C73 C138:C967" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PASSED,FAILED"</formula1>
     </dataValidation>
   </dataValidations>
